--- a/biology/Médecine/Fracture_de_l'extrémité_supérieure_de_l'humérus/Fracture_de_l'extrémité_supérieure_de_l'humérus.xlsx
+++ b/biology/Médecine/Fracture_de_l'extrémité_supérieure_de_l'humérus/Fracture_de_l'extrémité_supérieure_de_l'humérus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fracture_de_l%27extr%C3%A9mit%C3%A9_sup%C3%A9rieure_de_l%27hum%C3%A9rus</t>
+          <t>Fracture_de_l'extrémité_supérieure_de_l'humérus</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La fracture de l'extrémité supérieure de l'humérus est la rupture de la partie haute de l'os supérieur du bras, l'humérus, en deux ou plusieurs fragments. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fracture_de_l%27extr%C3%A9mit%C3%A9_sup%C3%A9rieure_de_l%27hum%C3%A9rus</t>
+          <t>Fracture_de_l'extrémité_supérieure_de_l'humérus</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fracture_de_l%27extr%C3%A9mit%C3%A9_sup%C3%A9rieure_de_l%27hum%C3%A9rus</t>
+          <t>Fracture_de_l'extrémité_supérieure_de_l'humérus</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,10 +551,12 @@
           <t>Signes et symptômes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La cause de cette fracture est très généralement un choc direct sur le bras[1]. La fracture de l'extrémité supérieure de l'humérus résulte généralement de simples chutes chez les personnes âgées et de traumatismes plus violents chez les personnes plus jeunes, notamment liés aux accidents de la circulation ou à la pratique d'un sport[2]. Chez les personnes âgées, particulièrement les femmes, cette fracture peut être indicatrice d'ostéoporose et s'insérer dans une cascade de fractures[3].
-Les symptômes comprennent une douleur, le gonflement et une diminution de la capacité à bouger l'épaule[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La cause de cette fracture est très généralement un choc direct sur le bras. La fracture de l'extrémité supérieure de l'humérus résulte généralement de simples chutes chez les personnes âgées et de traumatismes plus violents chez les personnes plus jeunes, notamment liés aux accidents de la circulation ou à la pratique d'un sport. Chez les personnes âgées, particulièrement les femmes, cette fracture peut être indicatrice d'ostéoporose et s'insérer dans une cascade de fractures.
+Les symptômes comprennent une douleur, le gonflement et une diminution de la capacité à bouger l'épaule.
 </t>
         </is>
       </c>
@@ -551,7 +567,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fracture_de_l%27extr%C3%A9mit%C3%A9_sup%C3%A9rieure_de_l%27hum%C3%A9rus</t>
+          <t>Fracture_de_l'extrémité_supérieure_de_l'humérus</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -569,9 +585,11 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le diagnostic de cette fracture s'effectue par radiologie médicale, complété par un scanner et une reconstruction 3D à partir d'images en cas d'indication chirurgicale[2]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le diagnostic de cette fracture s'effectue par radiologie médicale, complété par un scanner et une reconstruction 3D à partir d'images en cas d'indication chirurgicale. 
 </t>
         </is>
       </c>
@@ -582,7 +600,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fracture_de_l%27extr%C3%A9mit%C3%A9_sup%C3%A9rieure_de_l%27hum%C3%A9rus</t>
+          <t>Fracture_de_l'extrémité_supérieure_de_l'humérus</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -600,83 +618,159 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chez l'enfant et l'adolescent, le pronostic de guérison est généralement très bon, grâce aux capacités de remodelage osseux[5].
-Par orthopédie
-Les fractures non-déplacées, soit la majorité des cas, peuvent être traitées par simple orthopédie[2]. Typiquement, l'épaule est maintenue dans une orthèse, et des examens par radiologie sont effectués périodiquement pour vérifier la stabilité de la fracture[6].
-Par chirurgie orthopédique
-Le traitement des fractures déplacées et/ou multifragmentaires est plus complexe, et pourra nécessiter l'intervention d'un chirurgien[2]. 
-Les fractures les plus complexes sont celles à trois ou quatre fragments. Leur traitement est possible par plaque vissée anatomique par voie deltopectotale, ou par embrochage en palmier selon la technique de Kapandji, aucun des deux n'ayant montré de résultat supérieur à l'autre[7]. Dans les cas les plus graves (fracture multifragmentaire très déplacée), une prothèse d'épaule peut être posée[8]. Les options chirurgicales pour les fractures instables de l'humérus proximal comprennent[6] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez l'enfant et l'adolescent, le pronostic de guérison est généralement très bon, grâce aux capacités de remodelage osseux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fracture_de_l'extrémité_supérieure_de_l'humérus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fracture_de_l%27extr%C3%A9mit%C3%A9_sup%C3%A9rieure_de_l%27hum%C3%A9rus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Par orthopédie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fractures non-déplacées, soit la majorité des cas, peuvent être traitées par simple orthopédie. Typiquement, l'épaule est maintenue dans une orthèse, et des examens par radiologie sont effectués périodiquement pour vérifier la stabilité de la fracture.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fracture_de_l'extrémité_supérieure_de_l'humérus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fracture_de_l%27extr%C3%A9mit%C3%A9_sup%C3%A9rieure_de_l%27hum%C3%A9rus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Par chirurgie orthopédique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le traitement des fractures déplacées et/ou multifragmentaires est plus complexe, et pourra nécessiter l'intervention d'un chirurgien. 
+Les fractures les plus complexes sont celles à trois ou quatre fragments. Leur traitement est possible par plaque vissée anatomique par voie deltopectotale, ou par embrochage en palmier selon la technique de Kapandji, aucun des deux n'ayant montré de résultat supérieur à l'autre. Dans les cas les plus graves (fracture multifragmentaire très déplacée), une prothèse d'épaule peut être posée. Les options chirurgicales pour les fractures instables de l'humérus proximal comprennent :
 Réduction fermée avec brochage percutané (CRPP)
 Réduction ouverte avec fixation interne (ORIF)
 Fixation par tige intramédullaire
 Arthroplastie de l'épaule
 Arthroplastie inversée de l'épaule
-Dans ce cas, restituer l'anatomie de l'épaule, et particulièrement les tubérosités, est essentiel pour la guérison (ostéosynthèse et arthroplastie)[2], faute de quoi un cal vicieux (en) s'installe[2].
+Dans ce cas, restituer l'anatomie de l'épaule, et particulièrement les tubérosités, est essentiel pour la guérison (ostéosynthèse et arthroplastie), faute de quoi un cal vicieux (en) s'installe.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Fracture_de_l%27extr%C3%A9mit%C3%A9_sup%C3%A9rieure_de_l%27hum%C3%A9rus</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Fracture_de_l%27extr%C3%A9mit%C3%A9_sup%C3%A9rieure_de_l%27hum%C3%A9rus</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fracture_de_l'extrémité_supérieure_de_l'humérus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fracture_de_l%27extr%C3%A9mit%C3%A9_sup%C3%A9rieure_de_l%27hum%C3%A9rus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Complications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les complications peuvent inclure une lésion du nerf axillaire ou de l'artère axillaire[1].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les complications peuvent inclure une lésion du nerf axillaire ou de l'artère axillaire.
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Fracture_de_l%27extr%C3%A9mit%C3%A9_sup%C3%A9rieure_de_l%27hum%C3%A9rus</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Fracture_de_l%27extr%C3%A9mit%C3%A9_sup%C3%A9rieure_de_l%27hum%C3%A9rus</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Fracture_de_l'extrémité_supérieure_de_l'humérus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fracture_de_l%27extr%C3%A9mit%C3%A9_sup%C3%A9rieure_de_l%27hum%C3%A9rus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Fréquence</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce type de fracture devient de plus en plus fréquent avec le vieillissement démographique et l'ostéoporose[2].
-Cette fracture est beaucoup plus rare chez les enfants et les adolescents, particulièrement chez les jeunes enfants ; sa présence peut être un signe de maltraitance[5],[9].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce type de fracture devient de plus en plus fréquent avec le vieillissement démographique et l'ostéoporose.
+Cette fracture est beaucoup plus rare chez les enfants et les adolescents, particulièrement chez les jeunes enfants ; sa présence peut être un signe de maltraitance,.
 </t>
         </is>
       </c>
